--- a/biology/Histoire de la zoologie et de la botanique/Société_royale_linnéenne_de_Bruxelles/Société_royale_linnéenne_de_Bruxelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_royale_linnéenne_de_Bruxelles/Société_royale_linnéenne_de_Bruxelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_royale_linn%C3%A9enne_de_Bruxelles</t>
+          <t>Société_royale_linnéenne_de_Bruxelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société royale linnéenne de Bruxelles, est une société linéenne fondée en 1872, composée d'amateurs et de professionnels dont le but était l'étude du règne végétal et l'encouragement et la propagation d'espèces rares ou utiles dans la lignée des autres sociétés linnéennes.
 Son histoire est à ce jour mal connue malgré d'abondantes archives et la publication d'un bulletin.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_royale_linn%C3%A9enne_de_Bruxelles</t>
+          <t>Société_royale_linnéenne_de_Bruxelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Quelques membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Félix Muller, président en 1864.
 Louis Piré
